--- a/backend/src/templates/template_usd.xlsx
+++ b/backend/src/templates/template_usd.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bogdansitkiv/Documents/Гринлайн /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D7805C2-2E74-4D64-94F3-A8C4C136A17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EFA8E7C-32F3-4AAB-A657-140BEE8EAE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Импорт " sheetId="2" r:id="rId1"/>
+    <sheet name="sheet" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1923,77 +1923,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -2022,6 +1951,77 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
@@ -2244,8 +2244,8 @@
   </sheetPr>
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2269,17 +2269,17 @@
   <sheetData>
     <row r="1" spans="1:29" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="210" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="214" t="s">
+      <c r="B1" s="238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="243" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="215"/>
+      <c r="H1" s="244"/>
       <c r="I1" s="34" t="s">
         <v>2</v>
       </c>
@@ -2292,12 +2292,12 @@
       <c r="L1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="216" t="s">
+      <c r="M1" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="218"/>
+      <c r="N1" s="221"/>
+      <c r="O1" s="221"/>
+      <c r="P1" s="222"/>
       <c r="Q1" s="83" t="s">
         <v>7</v>
       </c>
@@ -2340,13 +2340,13 @@
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="211"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="213"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
       <c r="I2" s="18" t="s">
         <v>16</v>
       </c>
@@ -2437,10 +2437,10 @@
       <c r="F3" s="57">
         <v>0.22</v>
       </c>
-      <c r="G3" s="223" t="s">
+      <c r="G3" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="224"/>
+      <c r="H3" s="228"/>
       <c r="I3" s="18" t="s">
         <v>21</v>
       </c>
@@ -2518,13 +2518,13 @@
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="231" t="s">
+      <c r="B4" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="232"/>
-      <c r="D4" s="232"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="233"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
+      <c r="F4" s="247"/>
       <c r="G4" s="146"/>
       <c r="H4" s="62" t="s">
         <v>25</v>
@@ -3222,13 +3222,13 @@
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="204" t="s">
+      <c r="B12" s="235" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="205"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
       <c r="G12" s="147"/>
       <c r="H12" s="27"/>
       <c r="I12" s="18" t="s">
@@ -3370,11 +3370,11 @@
       <c r="F14" s="167"/>
       <c r="G14" s="2"/>
       <c r="H14" s="51"/>
-      <c r="I14" s="225" t="s">
+      <c r="I14" s="230" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="226"/>
-      <c r="K14" s="226"/>
+      <c r="J14" s="231"/>
+      <c r="K14" s="231"/>
       <c r="L14" s="37">
         <f>SUM(L2:L12)</f>
         <v>126861.73146292585</v>
@@ -3518,13 +3518,13 @@
       <c r="A18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="204" t="s">
+      <c r="B18" s="235" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="205"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="206"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="237"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="51"/>
@@ -3551,10 +3551,10 @@
       <c r="F19" s="165"/>
       <c r="G19" s="2"/>
       <c r="H19" s="21"/>
-      <c r="I19" s="237"/>
-      <c r="J19" s="237"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
+      <c r="L19" s="206"/>
       <c r="M19" s="51"/>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
@@ -3570,11 +3570,11 @@
       <c r="F20" s="165"/>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
-      <c r="I20" s="237"/>
-      <c r="J20" s="237"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="237"/>
-      <c r="M20" s="237"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="206"/>
+      <c r="L20" s="206"/>
+      <c r="M20" s="206"/>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="5"/>
@@ -3588,12 +3588,12 @@
       <c r="E21" s="163"/>
       <c r="F21" s="165"/>
       <c r="G21" s="21"/>
-      <c r="H21" s="243"/>
-      <c r="I21" s="237"/>
-      <c r="J21" s="237"/>
-      <c r="K21" s="237"/>
-      <c r="L21" s="237"/>
-      <c r="M21" s="237"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
+      <c r="L21" s="206"/>
+      <c r="M21" s="206"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" s="5"/>
@@ -3608,11 +3608,11 @@
       <c r="F22" s="167"/>
       <c r="G22" s="21"/>
       <c r="H22" s="21"/>
-      <c r="I22" s="244"/>
-      <c r="J22" s="237"/>
-      <c r="K22" s="237"/>
-      <c r="L22" s="237"/>
-      <c r="M22" s="237"/>
+      <c r="I22" s="213"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="206"/>
+      <c r="L22" s="206"/>
+      <c r="M22" s="206"/>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" s="5"/>
@@ -3627,11 +3627,11 @@
       <c r="F23" s="167"/>
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="244"/>
-      <c r="J23" s="245"/>
-      <c r="K23" s="237"/>
-      <c r="L23" s="237"/>
-      <c r="M23" s="237"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="214"/>
+      <c r="K23" s="206"/>
+      <c r="L23" s="206"/>
+      <c r="M23" s="206"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1">
       <c r="A24" s="5"/>
@@ -3646,11 +3646,11 @@
       <c r="F24" s="201"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
-      <c r="I24" s="244"/>
-      <c r="J24" s="246"/>
-      <c r="K24" s="237"/>
-      <c r="L24" s="237"/>
-      <c r="M24" s="237"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="215"/>
+      <c r="K24" s="206"/>
+      <c r="L24" s="206"/>
+      <c r="M24" s="206"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" s="5"/>
@@ -3661,30 +3661,30 @@
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
-      <c r="I25" s="244"/>
-      <c r="J25" s="245"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="237"/>
-      <c r="M25" s="237"/>
+      <c r="I25" s="213"/>
+      <c r="J25" s="214"/>
+      <c r="K25" s="206"/>
+      <c r="L25" s="206"/>
+      <c r="M25" s="206"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1">
       <c r="A26" s="5">
         <v>4</v>
       </c>
-      <c r="B26" s="227" t="s">
+      <c r="B26" s="232" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="228"/>
-      <c r="D26" s="228"/>
-      <c r="E26" s="228"/>
-      <c r="F26" s="229"/>
+      <c r="C26" s="233"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="234"/>
       <c r="G26" s="21"/>
-      <c r="H26" s="247"/>
-      <c r="I26" s="248"/>
-      <c r="J26" s="237"/>
-      <c r="K26" s="237"/>
-      <c r="L26" s="237"/>
-      <c r="M26" s="237"/>
+      <c r="H26" s="216"/>
+      <c r="I26" s="217"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="206"/>
+      <c r="L26" s="206"/>
+      <c r="M26" s="206"/>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1">
       <c r="A27" s="5"/>
@@ -3702,11 +3702,11 @@
       <c r="F27" s="161"/>
       <c r="G27" s="21"/>
       <c r="H27" s="21"/>
-      <c r="I27" s="244"/>
-      <c r="J27" s="237"/>
-      <c r="K27" s="237"/>
-      <c r="L27" s="237"/>
-      <c r="M27" s="237"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="206"/>
+      <c r="K27" s="206"/>
+      <c r="L27" s="206"/>
+      <c r="M27" s="206"/>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1">
       <c r="A28" s="5"/>
@@ -3721,12 +3721,12 @@
       <c r="E28" s="159"/>
       <c r="F28" s="162"/>
       <c r="G28" s="21"/>
-      <c r="H28" s="249"/>
-      <c r="I28" s="244"/>
-      <c r="J28" s="237"/>
-      <c r="K28" s="237"/>
-      <c r="L28" s="237"/>
-      <c r="M28" s="237"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="206"/>
+      <c r="K28" s="206"/>
+      <c r="L28" s="206"/>
+      <c r="M28" s="206"/>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1">
       <c r="A29" s="5"/>
@@ -3743,10 +3743,10 @@
       <c r="G29" s="21"/>
       <c r="H29" s="21"/>
       <c r="I29" s="95"/>
-      <c r="J29" s="236"/>
-      <c r="K29" s="236"/>
-      <c r="L29" s="237"/>
-      <c r="M29" s="237"/>
+      <c r="J29" s="205"/>
+      <c r="K29" s="205"/>
+      <c r="L29" s="206"/>
+      <c r="M29" s="206"/>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" s="5"/>
@@ -3764,11 +3764,11 @@
       </c>
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
-      <c r="I30" s="250"/>
-      <c r="J30" s="237"/>
-      <c r="K30" s="235"/>
-      <c r="L30" s="237"/>
-      <c r="M30" s="237"/>
+      <c r="I30" s="219"/>
+      <c r="J30" s="206"/>
+      <c r="K30" s="204"/>
+      <c r="L30" s="206"/>
+      <c r="M30" s="206"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1">
       <c r="A31" s="5"/>
@@ -3779,11 +3779,11 @@
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
       <c r="H31" s="21"/>
-      <c r="I31" s="248"/>
-      <c r="J31" s="237"/>
-      <c r="K31" s="236"/>
-      <c r="L31" s="237"/>
-      <c r="M31" s="237"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="206"/>
+      <c r="K31" s="205"/>
+      <c r="L31" s="206"/>
+      <c r="M31" s="206"/>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1">
       <c r="A32" s="5"/>
@@ -3794,30 +3794,30 @@
       <c r="F32" s="2"/>
       <c r="G32" s="21"/>
       <c r="H32" s="21"/>
-      <c r="I32" s="250"/>
-      <c r="J32" s="237"/>
-      <c r="K32" s="235"/>
-      <c r="L32" s="237"/>
-      <c r="M32" s="237"/>
+      <c r="I32" s="219"/>
+      <c r="J32" s="206"/>
+      <c r="K32" s="204"/>
+      <c r="L32" s="206"/>
+      <c r="M32" s="206"/>
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1">
       <c r="A33" s="5">
         <v>5</v>
       </c>
-      <c r="B33" s="207" t="s">
+      <c r="B33" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="C33" s="208"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="209"/>
+      <c r="C33" s="249"/>
+      <c r="D33" s="249"/>
+      <c r="E33" s="249"/>
+      <c r="F33" s="250"/>
       <c r="G33" s="21"/>
       <c r="H33" s="21"/>
-      <c r="I33" s="250"/>
-      <c r="J33" s="237"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="237"/>
-      <c r="M33" s="237"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="206"/>
+      <c r="K33" s="206"/>
+      <c r="L33" s="206"/>
+      <c r="M33" s="206"/>
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1">
       <c r="A34" s="5"/>
@@ -3832,11 +3832,11 @@
       <c r="F34" s="62"/>
       <c r="G34" s="21"/>
       <c r="H34" s="21"/>
-      <c r="I34" s="248"/>
-      <c r="J34" s="237"/>
-      <c r="K34" s="237"/>
-      <c r="L34" s="237"/>
-      <c r="M34" s="237"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="206"/>
+      <c r="K34" s="206"/>
+      <c r="L34" s="206"/>
+      <c r="M34" s="206"/>
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1">
       <c r="A35" s="5"/>
@@ -3848,16 +3848,16 @@
         <v>3951594.189689999</v>
       </c>
       <c r="D35" s="21"/>
-      <c r="E35" s="219" t="s">
+      <c r="E35" s="223" t="s">
         <v>68</v>
       </c>
-      <c r="F35" s="220"/>
+      <c r="F35" s="224"/>
       <c r="G35" s="2"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="237"/>
-      <c r="J35" s="237"/>
-      <c r="K35" s="237"/>
-      <c r="L35" s="237"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="206"/>
+      <c r="K35" s="206"/>
+      <c r="L35" s="206"/>
       <c r="M35" s="51"/>
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1">
@@ -3870,11 +3870,11 @@
         <v>11177291.512178997</v>
       </c>
       <c r="D36" s="71"/>
-      <c r="E36" s="221">
+      <c r="E36" s="225">
         <f>SUM(C39:C42)+D41</f>
         <v>-10447569.000454918</v>
       </c>
-      <c r="F36" s="222"/>
+      <c r="F36" s="226"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="50"/>
@@ -4118,13 +4118,13 @@
       <c r="A48" s="5">
         <v>6</v>
       </c>
-      <c r="B48" s="204" t="s">
+      <c r="B48" s="235" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="205"/>
-      <c r="D48" s="205"/>
-      <c r="E48" s="205"/>
-      <c r="F48" s="206"/>
+      <c r="C48" s="236"/>
+      <c r="D48" s="236"/>
+      <c r="E48" s="236"/>
+      <c r="F48" s="237"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="51"/>
@@ -4211,13 +4211,13 @@
     </row>
     <row r="54" spans="1:8" ht="15" customHeight="1" thickBot="1">
       <c r="A54" s="3"/>
-      <c r="B54" s="204" t="s">
+      <c r="B54" s="235" t="s">
         <v>87</v>
       </c>
-      <c r="C54" s="205"/>
-      <c r="D54" s="205"/>
-      <c r="E54" s="205"/>
-      <c r="F54" s="206"/>
+      <c r="C54" s="236"/>
+      <c r="D54" s="236"/>
+      <c r="E54" s="236"/>
+      <c r="F54" s="237"/>
       <c r="G54" s="14"/>
       <c r="H54" s="4"/>
     </row>
@@ -4350,8 +4350,8 @@
     </row>
     <row r="64" spans="1:8" ht="15" customHeight="1">
       <c r="A64" s="3"/>
-      <c r="B64" s="242"/>
-      <c r="C64" s="242"/>
+      <c r="B64" s="211"/>
+      <c r="C64" s="211"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -4359,130 +4359,130 @@
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8" ht="15" customHeight="1">
-      <c r="A65" s="240"/>
-      <c r="B65" s="234"/>
-      <c r="C65" s="234"/>
-      <c r="D65" s="241"/>
+      <c r="A65" s="209"/>
+      <c r="B65" s="229"/>
+      <c r="C65" s="229"/>
+      <c r="D65" s="210"/>
       <c r="E65" s="195"/>
       <c r="F65" s="195"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8" ht="15" customHeight="1">
-      <c r="A66" s="237"/>
-      <c r="B66" s="235"/>
-      <c r="C66" s="236"/>
-      <c r="D66" s="237"/>
+      <c r="A66" s="206"/>
+      <c r="B66" s="204"/>
+      <c r="C66" s="205"/>
+      <c r="D66" s="206"/>
       <c r="E66" s="51"/>
       <c r="F66" s="51"/>
       <c r="G66" s="51"/>
       <c r="H66" s="51"/>
     </row>
     <row r="67" spans="1:8" ht="15" customHeight="1">
-      <c r="A67" s="237"/>
-      <c r="B67" s="235"/>
-      <c r="C67" s="236"/>
-      <c r="D67" s="237"/>
+      <c r="A67" s="206"/>
+      <c r="B67" s="204"/>
+      <c r="C67" s="205"/>
+      <c r="D67" s="206"/>
       <c r="E67" s="51"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="15" customHeight="1">
-      <c r="A68" s="237"/>
-      <c r="B68" s="235"/>
-      <c r="C68" s="236"/>
-      <c r="D68" s="237"/>
+      <c r="A68" s="206"/>
+      <c r="B68" s="204"/>
+      <c r="C68" s="205"/>
+      <c r="D68" s="206"/>
       <c r="E68" s="51"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="15" customHeight="1">
-      <c r="A69" s="237"/>
-      <c r="B69" s="237"/>
-      <c r="C69" s="237"/>
-      <c r="D69" s="237"/>
+      <c r="A69" s="206"/>
+      <c r="B69" s="206"/>
+      <c r="C69" s="206"/>
+      <c r="D69" s="206"/>
       <c r="E69" s="51"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="15" customHeight="1">
-      <c r="A70" s="237"/>
-      <c r="B70" s="235"/>
-      <c r="C70" s="236"/>
-      <c r="D70" s="237"/>
+      <c r="A70" s="206"/>
+      <c r="B70" s="204"/>
+      <c r="C70" s="205"/>
+      <c r="D70" s="206"/>
       <c r="E70" s="51"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="15" customHeight="1">
-      <c r="A71" s="237"/>
-      <c r="B71" s="235"/>
-      <c r="C71" s="236"/>
-      <c r="D71" s="237"/>
+      <c r="A71" s="206"/>
+      <c r="B71" s="204"/>
+      <c r="C71" s="205"/>
+      <c r="D71" s="206"/>
       <c r="E71" s="51"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="15" customHeight="1">
-      <c r="A72" s="237"/>
-      <c r="B72" s="237"/>
-      <c r="C72" s="237"/>
-      <c r="D72" s="237"/>
+      <c r="A72" s="206"/>
+      <c r="B72" s="206"/>
+      <c r="C72" s="206"/>
+      <c r="D72" s="206"/>
       <c r="E72" s="51"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1">
-      <c r="A73" s="237"/>
-      <c r="B73" s="235"/>
-      <c r="C73" s="236"/>
-      <c r="D73" s="237"/>
+      <c r="A73" s="206"/>
+      <c r="B73" s="204"/>
+      <c r="C73" s="205"/>
+      <c r="D73" s="206"/>
       <c r="E73" s="51"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="15" customHeight="1">
-      <c r="A74" s="237"/>
-      <c r="B74" s="235"/>
-      <c r="C74" s="238"/>
-      <c r="D74" s="237"/>
+      <c r="A74" s="206"/>
+      <c r="B74" s="204"/>
+      <c r="C74" s="207"/>
+      <c r="D74" s="206"/>
       <c r="E74" s="51"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="15" customHeight="1">
-      <c r="A75" s="237"/>
-      <c r="B75" s="237"/>
-      <c r="C75" s="237"/>
-      <c r="D75" s="237"/>
+      <c r="A75" s="206"/>
+      <c r="B75" s="206"/>
+      <c r="C75" s="206"/>
+      <c r="D75" s="206"/>
       <c r="E75" s="51"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="15" customHeight="1">
-      <c r="A76" s="237"/>
-      <c r="B76" s="235"/>
-      <c r="C76" s="239"/>
-      <c r="D76" s="237"/>
+      <c r="A76" s="206"/>
+      <c r="B76" s="204"/>
+      <c r="C76" s="208"/>
+      <c r="D76" s="206"/>
       <c r="E76" s="51"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="15" customHeight="1">
-      <c r="A77" s="237"/>
+      <c r="A77" s="206"/>
       <c r="B77" s="19"/>
-      <c r="C77" s="239"/>
-      <c r="D77" s="237"/>
+      <c r="C77" s="208"/>
+      <c r="D77" s="206"/>
       <c r="E77" s="51"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
@@ -4490,8 +4490,8 @@
     </row>
     <row r="78" spans="1:8" ht="15" customHeight="1">
       <c r="A78" s="51"/>
-      <c r="B78" s="237"/>
-      <c r="C78" s="237"/>
+      <c r="B78" s="206"/>
+      <c r="C78" s="206"/>
       <c r="D78" s="51"/>
       <c r="E78" s="51"/>
       <c r="F78" s="51"/>
